--- a/8-测试用例.xlsx
+++ b/8-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+  <si>
+    <t>编写人：翁春怡</t>
+  </si>
+  <si>
+    <t>编写时间：2019.10.21</t>
+  </si>
   <si>
     <t>未通过</t>
   </si>
@@ -170,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -213,6 +219,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,14 +240,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,93 +339,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,79 +371,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,103 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,25 +589,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -609,10 +606,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -633,25 +628,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -671,6 +657,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -679,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,139 +697,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,290 +1210,280 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="8.87962962962963" customWidth="1"/>
+    <col min="2" max="2" width="4.87962962962963" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="62.875" customWidth="1"/>
-    <col min="5" max="5" width="56.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="8" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="62.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="56.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="10.8796296296296" customWidth="1"/>
+    <col min="7" max="8" width="12.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="5:8">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>1.1</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5">
         <v>1.2</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6">
         <v>1.3</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
         <v>2.1</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7"/>
+      <c r="B8">
         <v>2.2</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
-      <c r="B8">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9">
         <v>2.3</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10">
         <v>2.4</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="B10">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7"/>
+      <c r="B11">
         <v>2.5</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
         <v>3.1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12">
-        <v>3.2</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -1489,71 +1491,92 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15">
+        <v>3.4</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="B15">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
         <v>4.1</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B16">
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
         <v>5.1</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="7:8">
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="G3:G16"/>
-    <mergeCell ref="H3:H16"/>
+  <mergeCells count="7">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="G4:G17"/>
+    <mergeCell ref="H4:H17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1570,7 +1593,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1587,7 +1610,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
